--- a/assets/datas/omray.xlsx
+++ b/assets/datas/omray.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,23 @@
         </is>
       </c>
       <c r="C3" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-11-25 14:05</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prakarya</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Regular</t>
         </is>
